--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -485,22 +485,26 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2, 4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,29 +513,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4, 6, 8</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,18 +543,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,25 +567,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2, 4, 6</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -590,25 +594,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -617,29 +625,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -648,29 +656,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -679,17 +687,17 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -697,7 +705,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -706,25 +714,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -733,29 +741,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -764,29 +772,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4, 6</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -795,17 +799,17 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -813,7 +817,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,29 +826,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -853,17 +853,17 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1, 3, 5, 7</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -871,7 +871,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -890,19 +890,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4, 6</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -911,25 +911,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -938,29 +942,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -969,29 +969,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1003,22 +999,18 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1027,29 +1019,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1058,29 +1050,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1092,26 +1084,22 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2, 4, 6</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1120,29 +1108,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1151,25 +1139,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4, 6, 8</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1178,29 +1170,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1209,22 +1197,18 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4, 8</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1250,19 +1234,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1274,26 +1258,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1302,25 +1282,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1329,25 +1309,29 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6, 8</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1356,25 +1340,29 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1393,7 +1381,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4, 6</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1401,7 +1389,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1410,25 +1398,29 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1440,26 +1432,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1468,29 +1456,29 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1509,19 +1497,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1530,17 +1518,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2, 4, 6, 8</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1548,7 +1536,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1560,22 +1548,26 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1584,25 +1576,29 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1611,20 +1607,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4, 8</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,29 +482,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,7 +515,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -558,7 +550,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -567,25 +559,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,29 +586,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -625,29 +613,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,26 +643,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -687,25 +667,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -714,25 +694,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -741,29 +721,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -772,17 +748,17 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -790,7 +766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -799,25 +775,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -836,7 +816,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -844,7 +824,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -853,25 +833,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -880,29 +864,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -911,17 +895,17 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -933,7 +917,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -942,25 +926,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -969,25 +957,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -996,21 +988,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1019,17 +1019,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1053,26 +1053,22 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1081,25 +1077,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1111,26 +1111,22 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1139,29 +1135,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1170,25 +1162,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1197,25 +1193,29 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3, 5</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1224,29 +1224,29 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1255,25 +1255,29 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1282,25 +1286,29 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1309,29 +1317,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1340,29 +1344,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1374,22 +1374,26 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1398,17 +1402,17 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1420,7 +1424,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1429,17 +1433,17 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1447,7 +1451,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1456,29 +1460,29 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1497,7 +1501,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1509,7 +1513,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1518,17 +1522,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1536,7 +1540,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1545,29 +1549,29 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1576,29 +1580,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1607,17 +1607,17 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,14 +543,14 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -577,7 +577,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -586,25 +586,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -624,14 +624,14 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -712,7 +712,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -766,7 +766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -833,29 +833,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -874,19 +870,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -905,7 +901,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -917,7 +913,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -936,19 +932,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -967,19 +963,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -988,24 +984,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1041,7 +1033,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1060,7 +1052,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1068,7 +1060,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1087,19 +1079,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1108,25 +1100,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1135,25 +1131,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1172,19 +1172,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1193,24 +1193,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1246,7 +1242,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1265,19 +1261,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1296,19 +1292,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1317,25 +1313,29 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1362,7 +1362,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1393,7 +1393,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1402,24 +1402,20 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1451,7 +1447,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1470,19 +1466,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1501,19 +1497,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1522,25 +1518,29 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1549,29 +1549,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1580,25 +1576,29 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,7 +732,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,20 +819,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -840,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -864,7 +868,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -874,7 +878,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,24 +887,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,20 +917,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -938,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -947,24 +951,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,20 +1015,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1036,7 +1040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1045,20 +1049,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1074,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1093,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1096,7 +1104,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1115,7 +1123,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1126,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1135,24 +1143,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1160,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1169,24 +1173,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,24 +1271,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1305,24 +1301,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1330,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1341,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1364,7 +1356,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1373,20 +1365,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1394,7 +1390,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1413,12 +1409,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1424,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1437,20 +1433,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1531,24 +1531,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1590,7 +1586,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1599,20 +1595,24 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +612,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,24 +819,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -868,7 +864,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -878,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -897,7 +893,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -908,7 +904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -932,7 +928,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -942,7 +938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,20 +947,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1049,24 +1049,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1074,7 +1070,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1089,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1104,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,7 +1119,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1134,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1143,20 +1139,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,20 +1173,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1194,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,24 +1207,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1301,20 +1301,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1322,7 +1326,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1341,7 +1345,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1356,7 +1360,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1375,7 +1379,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1390,7 +1394,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1414,7 +1418,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,12 +1447,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1462,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1467,24 +1471,20 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1531,20 +1531,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1552,7 +1556,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1561,24 +1565,20 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1697,24 +1697,20 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1722,7 +1718,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1731,20 +1727,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,24 +785,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -810,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,20 +815,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,20 +883,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -904,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +927,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -938,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,12 +961,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -972,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,24 +985,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,24 +1015,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1040,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1049,20 +1045,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,20 +1109,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1130,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,24 +1143,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,20 +1271,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1292,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,12 +1315,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1330,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1345,7 +1349,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1360,7 +1364,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1369,24 +1373,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1403,24 +1403,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1428,7 +1424,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1447,12 +1443,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1458,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1481,7 +1477,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1492,7 +1488,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1501,20 +1497,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1531,24 +1531,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1556,7 +1552,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1565,20 +1561,24 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1697,20 +1697,24 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,24 +1731,20 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,20 +785,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -806,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -825,12 +829,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -840,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,12 +863,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -874,7 +878,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,24 +887,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,24 +917,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -942,7 +938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -961,7 +957,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -976,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,7 +991,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1006,7 +1002,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,20 +1011,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1143,20 +1143,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1164,7 +1168,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,24 +1177,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1207,20 +1207,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1237,24 +1241,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,12 +1349,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1403,20 +1403,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1424,7 +1428,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1433,24 +1437,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1531,20 +1531,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1552,7 +1556,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1575,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1590,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1610,7 +1614,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1624,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1629,24 +1633,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,24 +1663,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1722,7 +1718,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1731,20 +1727,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,24 +751,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -776,7 +772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -800,7 +796,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -810,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,12 +825,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -844,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,7 +859,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -878,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -887,20 +883,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,20 +917,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -938,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,12 +961,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -972,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,7 +995,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1002,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1021,12 +1025,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1055,12 +1059,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1074,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1089,7 +1093,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1100,7 +1104,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,24 +1113,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,24 +1271,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1305,24 +1301,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1330,7 +1322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1341,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1364,7 +1356,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1373,20 +1365,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1394,7 +1390,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1418,7 +1414,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1424,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1437,20 +1433,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1531,24 +1531,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1624,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1633,20 +1629,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,20 +1663,24 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,24 +1731,20 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,20 +751,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -772,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -796,7 +800,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -806,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -815,24 +819,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,24 +883,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -908,7 +904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,24 +913,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -942,7 +934,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -961,12 +953,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1006,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1025,12 +1017,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1032,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,12 +1051,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1066,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1085,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1104,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1113,20 +1105,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1134,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1143,24 +1139,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1168,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1177,20 +1169,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1217,12 +1213,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1241,20 +1237,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1301,20 +1301,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1322,7 +1326,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1341,12 +1345,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1360,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1365,24 +1369,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1467,20 +1467,24 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1488,7 +1492,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,7 +1511,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1522,7 +1526,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1541,7 +1545,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1552,7 +1556,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1575,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1590,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,12 +1609,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1624,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1629,24 +1633,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,24 +1663,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1688,7 +1684,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1707,12 +1703,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1718,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1731,20 +1727,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,20 +819,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -840,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,7 +863,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -874,7 +878,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,20 +887,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -904,7 +912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -934,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -943,24 +951,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -968,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,20 +981,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -998,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,24 +1015,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1032,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1041,24 +1045,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1075,20 +1075,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1096,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1115,7 +1119,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1130,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1149,7 +1153,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1179,7 +1183,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1194,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,24 +1207,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,20 +1271,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1292,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,12 +1315,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1330,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1335,24 +1339,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1399,24 +1399,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1424,7 +1420,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,12 +1439,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1488,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1511,12 +1507,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1545,7 +1541,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1590,7 +1586,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1609,12 +1605,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1633,20 +1629,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,20 +1663,24 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1, 3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,24 +1731,20 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,20 +631,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,20 +721,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,24 +751,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -776,7 +772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -785,24 +781,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -810,7 +802,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -834,7 +826,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -844,7 +836,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,12 +855,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -878,7 +870,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -897,12 +889,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -912,7 +904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -921,20 +913,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -942,7 +938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,20 +947,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,20 +1015,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1036,7 +1040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1045,20 +1049,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1074,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,12 +1093,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1108,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,24 +1117,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1134,7 +1138,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1157,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1164,7 +1168,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,24 +1177,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,24 +1271,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 5</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,7 +1311,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1339,20 +1335,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1369,20 +1369,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1390,7 +1394,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1399,20 +1403,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1420,7 +1428,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1429,24 +1437,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1454,7 +1458,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1473,7 +1477,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1488,7 +1492,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1497,24 +1501,20 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
+          <t>1, 3, 5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1, 3, 5</t>
+          <t>3, 5, 7</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,20 +571,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,20 +691,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,20 +751,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -772,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,7 +795,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -802,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -821,12 +825,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -836,7 +840,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -845,24 +849,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,24 +981,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,7 +1002,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,24 +1011,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1040,7 +1032,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1049,24 +1041,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1074,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1083,24 +1071,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,7 +1092,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1117,20 +1101,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1138,7 +1126,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1147,20 +1135,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1168,7 +1160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1177,20 +1169,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1207,20 +1203,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1403,24 +1403,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1428,7 +1424,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1437,20 +1433,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1467,24 +1467,20 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1492,7 +1488,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1501,20 +1497,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1531,20 +1531,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1552,7 +1556,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1575,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1590,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1610,7 +1614,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1624,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1629,24 +1633,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">

--- a/generated/oliva1980.xlsx
+++ b/generated/oliva1980.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +511,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +541,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,20 +661,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,24 +853,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -878,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -897,12 +893,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -912,7 +908,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -921,20 +917,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,20 +951,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -972,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,24 +985,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1045,20 +1045,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,7 +1070,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,12 +1089,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1104,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1109,24 +1113,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1173,24 +1173,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1207,20 +1203,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1399,20 +1399,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1420,7 +1424,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1439,7 +1443,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1454,7 +1458,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1473,7 +1477,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3, 5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1488,7 +1492,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1497,24 +1501,20 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3, 5, 7</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
